--- a/out/CE/FigA_9.xlsx
+++ b/out/CE/FigA_9.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A86A5B-626C-41A6-904E-C22AFEF97269}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.86980999999999997</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="B1">
+        <v>0.87743000000000004</v>
+      </c>
+      <c r="C1">
+        <v>0.85106000000000004</v>
+      </c>
+      <c r="D1">
+        <v>0.85870999999999997</v>
+      </c>
+      <c r="E1">
+        <v>0.86553000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.87748999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.84897</v>
+      </c>
+      <c r="H1">
+        <v>0.84072999999999998</v>
+      </c>
+      <c r="I1">
+        <v>0.84902</v>
+      </c>
+      <c r="J1">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="K1">
+        <v>0.87761</v>
+      </c>
+      <c r="L1">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.85180999999999996</v>
+      </c>
+      <c r="N1">
+        <v>0.84748999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0.86507999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.86634999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.85633999999999999</v>
+      </c>
+      <c r="S1">
+        <v>0.86851</v>
+      </c>
+      <c r="T1">
+        <v>0.85448999999999997</v>
+      </c>
+      <c r="U1">
+        <v>0.85929</v>
+      </c>
+      <c r="V1">
+        <v>0.88185000000000002</v>
+      </c>
+      <c r="W1">
+        <v>0.87643000000000004</v>
+      </c>
+      <c r="X1">
+        <v>0.85402</v>
+      </c>
+      <c r="Y1">
+        <v>0.85977000000000003</v>
+      </c>
+      <c r="Z1">
+        <v>0.86358999999999997</v>
+      </c>
+      <c r="AA1">
+        <v>0.86582000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>0.84074000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AE1">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="AF1">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="AG1">
+        <v>0.82864000000000004</v>
+      </c>
+      <c r="AH1">
+        <v>0.85289000000000004</v>
+      </c>
+      <c r="AI1">
+        <v>0.86597999999999997</v>
+      </c>
+      <c r="AJ1">
+        <v>0.83045999999999998</v>
+      </c>
+      <c r="AK1">
+        <v>0.88480999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.84492999999999996</v>
+      </c>
+      <c r="AM1">
+        <v>0.86412999999999995</v>
+      </c>
+      <c r="AN1">
+        <v>0.86024</v>
+      </c>
+      <c r="AO1">
+        <v>0.84838999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="AQ1">
+        <v>0.84836999999999996</v>
+      </c>
+      <c r="AR1">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.87514999999999998</v>
+      </c>
+      <c r="AT1">
+        <v>0.85535000000000005</v>
+      </c>
+      <c r="AU1">
+        <v>0.85346999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="AW1">
+        <v>0.87775999999999998</v>
+      </c>
+      <c r="AX1">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="AY1">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="AZ1">
+        <v>0.87836000000000003</v>
+      </c>
+      <c r="BA1">
+        <v>0.81928999999999996</v>
+      </c>
+      <c r="BB1">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="BC1">
+        <v>0.86285000000000001</v>
+      </c>
+      <c r="BD1">
+        <v>0.87673000000000001</v>
+      </c>
+      <c r="BE1">
+        <v>0.86721999999999999</v>
+      </c>
+      <c r="BF1">
+        <v>0.86780999999999997</v>
+      </c>
+      <c r="BG1">
+        <v>0.85875000000000001</v>
+      </c>
+      <c r="BH1">
+        <v>0.87304999999999999</v>
+      </c>
+      <c r="BI1">
+        <v>0.85096000000000005</v>
+      </c>
+      <c r="BJ1">
+        <v>0.83450999999999997</v>
+      </c>
+      <c r="BK1">
+        <v>0.86392999999999998</v>
+      </c>
+      <c r="BL1">
+        <v>0.84026000000000001</v>
+      </c>
+      <c r="BM1">
+        <v>0.84943000000000002</v>
+      </c>
+      <c r="BN1">
+        <v>0.85157000000000005</v>
+      </c>
+      <c r="BO1">
+        <v>0.85823000000000005</v>
+      </c>
+      <c r="BP1">
+        <v>0.84869000000000006</v>
+      </c>
+      <c r="BQ1">
+        <v>0.83916999999999997</v>
+      </c>
+      <c r="BR1">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="BS1">
+        <v>0.86287999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="BU1">
+        <v>0.83028000000000002</v>
+      </c>
+      <c r="BV1">
+        <v>0.85470999999999997</v>
+      </c>
+      <c r="BW1">
+        <v>0.85787999999999998</v>
+      </c>
+      <c r="BX1">
+        <v>0.87348999999999999</v>
+      </c>
+      <c r="BY1">
+        <v>0.88448000000000004</v>
+      </c>
+      <c r="BZ1">
+        <v>0.87661999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.86795999999999995</v>
+      </c>
+      <c r="CB1">
+        <v>0.85753000000000001</v>
+      </c>
+      <c r="CC1">
+        <v>0.87275000000000003</v>
+      </c>
+      <c r="CD1">
+        <v>0.86897999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="CF1">
+        <v>0.85328000000000004</v>
+      </c>
+      <c r="CG1">
+        <v>0.87722</v>
+      </c>
+      <c r="CH1">
+        <v>0.88327</v>
+      </c>
+      <c r="CI1">
+        <v>0.85812999999999995</v>
+      </c>
+      <c r="CJ1">
+        <v>0.86473</v>
+      </c>
+      <c r="CK1">
+        <v>0.88393999999999995</v>
+      </c>
+      <c r="CL1">
+        <v>0.84619</v>
+      </c>
+      <c r="CM1">
+        <v>0.86538000000000004</v>
+      </c>
+      <c r="CN1">
+        <v>0.82638</v>
+      </c>
+      <c r="CO1">
+        <v>0.87673999999999996</v>
+      </c>
+      <c r="CP1">
+        <v>0.83436999999999995</v>
+      </c>
+      <c r="CQ1">
+        <v>0.85923000000000005</v>
+      </c>
+      <c r="CR1">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="CS1">
+        <v>0.84863</v>
+      </c>
+      <c r="CT1">
+        <v>0.84726000000000001</v>
+      </c>
+      <c r="CU1">
+        <v>0.83457000000000003</v>
+      </c>
+      <c r="CV1">
+        <v>0.87017</v>
+      </c>
+      <c r="CW1">
+        <v>0.85836009999999985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.85975999999999997</v>
+      </c>
+      <c r="B2">
+        <v>0.86709000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.86655000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.85616999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.84280999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.87866999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.86111000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.84192</v>
+      </c>
+      <c r="J2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.86282000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.87307000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.86187000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.87246999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.88648000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.85780999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.87199000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.86028000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="V2">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.86134999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.83535999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.87077000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.85560999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.87743000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.83196999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0.83765999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>0.84769000000000005</v>
+      </c>
+      <c r="AF2">
+        <v>0.86699000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.86448999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.83070999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87863999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.84348000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0.87975000000000003</v>
+      </c>
+      <c r="AM2">
+        <v>0.86909000000000003</v>
+      </c>
+      <c r="AN2">
+        <v>0.86870999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.86455000000000004</v>
+      </c>
+      <c r="AP2">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85163</v>
+      </c>
+      <c r="AR2">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="AS2">
+        <v>0.87626999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.86497999999999997</v>
+      </c>
+      <c r="AU2">
+        <v>0.84909000000000001</v>
+      </c>
+      <c r="AV2">
+        <v>0.85760999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.87017</v>
+      </c>
+      <c r="AX2">
+        <v>0.84692999999999996</v>
+      </c>
+      <c r="AY2">
+        <v>0.86845000000000006</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>0.87241999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>0.86507000000000001</v>
+      </c>
+      <c r="BC2">
+        <v>0.87300999999999995</v>
+      </c>
+      <c r="BD2">
+        <v>0.84902</v>
+      </c>
+      <c r="BE2">
+        <v>0.85148999999999997</v>
+      </c>
+      <c r="BF2">
+        <v>0.87024000000000001</v>
+      </c>
+      <c r="BG2">
+        <v>0.87502999999999997</v>
+      </c>
+      <c r="BH2">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="BI2">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86060999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.86270999999999998</v>
+      </c>
+      <c r="BL2">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="BM2">
+        <v>0.86545000000000005</v>
+      </c>
+      <c r="BN2">
+        <v>0.87302000000000002</v>
+      </c>
+      <c r="BO2">
+        <v>0.84447000000000005</v>
+      </c>
+      <c r="BP2">
+        <v>0.88622999999999996</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86707000000000001</v>
+      </c>
+      <c r="BR2">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.86329</v>
+      </c>
+      <c r="BT2">
+        <v>0.86265000000000003</v>
+      </c>
+      <c r="BU2">
+        <v>0.87214999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="BW2">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.84506000000000003</v>
+      </c>
+      <c r="BY2">
+        <v>0.86273999999999995</v>
+      </c>
+      <c r="BZ2">
+        <v>0.85033000000000003</v>
+      </c>
+      <c r="CA2">
+        <v>0.83281000000000005</v>
+      </c>
+      <c r="CB2">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.88441999999999998</v>
+      </c>
+      <c r="CD2">
+        <v>0.86016999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.86256999999999995</v>
+      </c>
+      <c r="CF2">
+        <v>0.84487999999999996</v>
+      </c>
+      <c r="CG2">
+        <v>0.86602000000000001</v>
+      </c>
+      <c r="CH2">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="CI2">
+        <v>0.86194000000000004</v>
+      </c>
+      <c r="CJ2">
+        <v>0.85914000000000001</v>
+      </c>
+      <c r="CK2">
+        <v>0.84545000000000003</v>
+      </c>
+      <c r="CL2">
+        <v>0.86275000000000002</v>
+      </c>
+      <c r="CM2">
+        <v>0.87187000000000003</v>
+      </c>
+      <c r="CN2">
+        <v>0.87400999999999995</v>
+      </c>
+      <c r="CO2">
+        <v>0.84796000000000005</v>
+      </c>
+      <c r="CP2">
+        <v>0.86567000000000005</v>
+      </c>
+      <c r="CQ2">
+        <v>0.86983999999999995</v>
+      </c>
+      <c r="CR2">
+        <v>0.85038000000000002</v>
+      </c>
+      <c r="CS2">
+        <v>0.85875999999999997</v>
+      </c>
+      <c r="CT2">
+        <v>0.83311999999999997</v>
+      </c>
+      <c r="CU2">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="CV2">
+        <v>0.89022000000000001</v>
+      </c>
+      <c r="CW2">
+        <v>0.86059080000000032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.87763000000000002</v>
+      </c>
+      <c r="B3">
+        <v>0.87095999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.86314999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.87551999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.84938999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.84145000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.84189000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.87463000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="L3">
+        <v>0.84431</v>
+      </c>
+      <c r="M3">
+        <v>0.85133000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="O3">
+        <v>0.86565999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.85760999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.87065999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.83933999999999997</v>
+      </c>
+      <c r="S3">
+        <v>0.84323000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.85648000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.84170999999999996</v>
+      </c>
+      <c r="V3">
+        <v>0.85199000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.87089000000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.86155000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="Z3">
+        <v>0.87614000000000003</v>
+      </c>
+      <c r="AA3">
+        <v>0.86843000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>0.86682000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>0.86970999999999998</v>
+      </c>
+      <c r="AD3">
+        <v>0.87182999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.87438000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="AG3">
+        <v>0.87400999999999995</v>
+      </c>
+      <c r="AH3">
+        <v>0.85846</v>
+      </c>
+      <c r="AI3">
+        <v>0.86912</v>
+      </c>
+      <c r="AJ3">
+        <v>0.82625999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.87838000000000005</v>
+      </c>
+      <c r="AL3">
+        <v>0.86407999999999996</v>
+      </c>
+      <c r="AM3">
+        <v>0.87338000000000005</v>
+      </c>
+      <c r="AN3">
+        <v>0.85579000000000005</v>
+      </c>
+      <c r="AO3">
+        <v>0.86307</v>
+      </c>
+      <c r="AP3">
+        <v>0.88356000000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85982999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="AS3">
+        <v>0.85045999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.86928000000000005</v>
+      </c>
+      <c r="AV3">
+        <v>0.87161999999999995</v>
+      </c>
+      <c r="AW3">
+        <v>0.83718000000000004</v>
+      </c>
+      <c r="AX3">
+        <v>0.85977000000000003</v>
+      </c>
+      <c r="AY3">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="BA3">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="BB3">
+        <v>0.86682999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.87841000000000002</v>
+      </c>
+      <c r="BD3">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="BE3">
+        <v>0.84379000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="BG3">
+        <v>0.84907999999999995</v>
+      </c>
+      <c r="BH3">
+        <v>0.87733000000000005</v>
+      </c>
+      <c r="BI3">
+        <v>0.85780999999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>0.85043000000000002</v>
+      </c>
+      <c r="BK3">
+        <v>0.85343000000000002</v>
+      </c>
+      <c r="BL3">
+        <v>0.84540999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.85031999999999996</v>
+      </c>
+      <c r="BN3">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="BO3">
+        <v>0.86956999999999995</v>
+      </c>
+      <c r="BP3">
+        <v>0.87697999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.87802999999999998</v>
+      </c>
+      <c r="BR3">
+        <v>0.86278999999999995</v>
+      </c>
+      <c r="BS3">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="BT3">
+        <v>0.87692999999999999</v>
+      </c>
+      <c r="BU3">
+        <v>0.86189000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.86170999999999998</v>
+      </c>
+      <c r="BW3">
+        <v>0.86760999999999999</v>
+      </c>
+      <c r="BX3">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="BY3">
+        <v>0.85472999999999999</v>
+      </c>
+      <c r="BZ3">
+        <v>0.88107999999999997</v>
+      </c>
+      <c r="CA3">
+        <v>0.86651</v>
+      </c>
+      <c r="CB3">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="CC3">
+        <v>0.84377000000000002</v>
+      </c>
+      <c r="CD3">
+        <v>0.88161</v>
+      </c>
+      <c r="CE3">
+        <v>0.84887999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.87526999999999999</v>
+      </c>
+      <c r="CG3">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="CH3">
+        <v>0.86362000000000005</v>
+      </c>
+      <c r="CI3">
+        <v>0.86301000000000005</v>
+      </c>
+      <c r="CJ3">
+        <v>0.87327999999999995</v>
+      </c>
+      <c r="CK3">
+        <v>0.86721999999999999</v>
+      </c>
+      <c r="CL3">
+        <v>0.83160999999999996</v>
+      </c>
+      <c r="CM3">
+        <v>0.85323000000000004</v>
+      </c>
+      <c r="CN3">
+        <v>0.86231000000000002</v>
+      </c>
+      <c r="CO3">
+        <v>0.86607999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>0.86051</v>
+      </c>
+      <c r="CQ3">
+        <v>0.87146000000000001</v>
+      </c>
+      <c r="CR3">
+        <v>0.87248999999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.87290999999999996</v>
+      </c>
+      <c r="CT3">
+        <v>0.83975999999999995</v>
+      </c>
+      <c r="CU3">
+        <v>0.83989000000000003</v>
+      </c>
+      <c r="CV3">
+        <v>0.86756999999999995</v>
+      </c>
+      <c r="CW3">
+        <v>0.86109690000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.89473000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.87458000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.86948999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.85921999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.85919000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.83762000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.86231000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.83636999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.85302999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.85677000000000003</v>
+      </c>
+      <c r="M4">
+        <v>0.85872999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.87353000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>0.8861</v>
+      </c>
+      <c r="R4">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.86900999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.87219000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.85114000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="W4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.88395999999999997</v>
+      </c>
+      <c r="Y4">
+        <v>0.83277999999999996</v>
+      </c>
+      <c r="Z4">
+        <v>0.85941000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.86741000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.84933999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.87702999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.85758000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.88388</v>
+      </c>
+      <c r="AF4">
+        <v>0.85668</v>
+      </c>
+      <c r="AG4">
+        <v>0.8861</v>
+      </c>
+      <c r="AH4">
+        <v>0.85833999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>0.86919000000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>0.85253000000000001</v>
+      </c>
+      <c r="AK4">
+        <v>0.87416000000000005</v>
+      </c>
+      <c r="AL4">
+        <v>0.87011000000000005</v>
+      </c>
+      <c r="AM4">
+        <v>0.87129000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.85524999999999995</v>
+      </c>
+      <c r="AO4">
+        <v>0.85163999999999995</v>
+      </c>
+      <c r="AP4">
+        <v>0.87029000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>0.86121000000000003</v>
+      </c>
+      <c r="AR4">
+        <v>0.88910999999999996</v>
+      </c>
+      <c r="AS4">
+        <v>0.87412999999999996</v>
+      </c>
+      <c r="AT4">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="AV4">
+        <v>0.87246000000000001</v>
+      </c>
+      <c r="AW4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.84553999999999996</v>
+      </c>
+      <c r="AY4">
+        <v>0.8508</v>
+      </c>
+      <c r="AZ4">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="BA4">
+        <v>0.85468</v>
+      </c>
+      <c r="BB4">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>0.88668000000000002</v>
+      </c>
+      <c r="BD4">
+        <v>0.85875000000000001</v>
+      </c>
+      <c r="BE4">
+        <v>0.86392999999999998</v>
+      </c>
+      <c r="BF4">
+        <v>0.83606999999999998</v>
+      </c>
+      <c r="BG4">
+        <v>0.88929000000000002</v>
+      </c>
+      <c r="BH4">
+        <v>0.86412</v>
+      </c>
+      <c r="BI4">
+        <v>0.86316000000000004</v>
+      </c>
+      <c r="BJ4">
+        <v>0.86273999999999995</v>
+      </c>
+      <c r="BK4">
+        <v>0.88158999999999998</v>
+      </c>
+      <c r="BL4">
+        <v>0.86624000000000001</v>
+      </c>
+      <c r="BM4">
+        <v>0.84545000000000003</v>
+      </c>
+      <c r="BN4">
+        <v>0.82189000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="BP4">
+        <v>0.87356</v>
+      </c>
+      <c r="BQ4">
+        <v>0.85236999999999996</v>
+      </c>
+      <c r="BR4">
+        <v>0.84921999999999997</v>
+      </c>
+      <c r="BS4">
+        <v>0.85892999999999997</v>
+      </c>
+      <c r="BT4">
+        <v>0.84924999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>0.87722</v>
+      </c>
+      <c r="BV4">
+        <v>0.82601999999999998</v>
+      </c>
+      <c r="BW4">
+        <v>0.87322999999999995</v>
+      </c>
+      <c r="BX4">
+        <v>0.86148000000000002</v>
+      </c>
+      <c r="BY4">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="BZ4">
+        <v>0.88168999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.87195999999999996</v>
+      </c>
+      <c r="CB4">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="CC4">
+        <v>0.88056000000000001</v>
+      </c>
+      <c r="CD4">
+        <v>0.84350999999999998</v>
+      </c>
+      <c r="CE4">
+        <v>0.88595999999999997</v>
+      </c>
+      <c r="CF4">
+        <v>0.86109000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.84331</v>
+      </c>
+      <c r="CH4">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="CI4">
+        <v>0.85143999999999997</v>
+      </c>
+      <c r="CJ4">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="CK4">
+        <v>0.87673000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.85831999999999997</v>
+      </c>
+      <c r="CM4">
+        <v>0.88088</v>
+      </c>
+      <c r="CN4">
+        <v>0.89446999999999999</v>
+      </c>
+      <c r="CO4">
+        <v>0.88149</v>
+      </c>
+      <c r="CP4">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="CQ4">
+        <v>0.87412999999999996</v>
+      </c>
+      <c r="CR4">
+        <v>0.88907999999999998</v>
+      </c>
+      <c r="CS4">
+        <v>0.84116000000000002</v>
+      </c>
+      <c r="CT4">
+        <v>0.85233000000000003</v>
+      </c>
+      <c r="CU4">
+        <v>0.86558999999999997</v>
+      </c>
+      <c r="CV4">
+        <v>0.85065999999999997</v>
+      </c>
+      <c r="CW4">
+        <v>0.86421340000000024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.86558999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.88046000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.85773999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.89102000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.87724000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.88548000000000004</v>
+      </c>
+      <c r="J5">
+        <v>0.84358</v>
+      </c>
+      <c r="K5">
+        <v>0.86531000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.84240999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.86731000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.84362999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.84624999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.86921000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.86967000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.85028999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.88683000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.85524999999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.85004999999999997</v>
+      </c>
+      <c r="Z5">
+        <v>0.88295999999999997</v>
+      </c>
+      <c r="AA5">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>0.87655000000000005</v>
+      </c>
+      <c r="AC5">
+        <v>0.87429000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.86736999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>0.85333999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>0.84460999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.85412999999999994</v>
+      </c>
+      <c r="AI5">
+        <v>0.84475999999999996</v>
+      </c>
+      <c r="AJ5">
+        <v>0.86068999999999996</v>
+      </c>
+      <c r="AK5">
+        <v>0.86897000000000002</v>
+      </c>
+      <c r="AL5">
+        <v>0.88346999999999998</v>
+      </c>
+      <c r="AM5">
+        <v>0.86165000000000003</v>
+      </c>
+      <c r="AN5">
+        <v>0.84069000000000005</v>
+      </c>
+      <c r="AO5">
+        <v>0.87341000000000002</v>
+      </c>
+      <c r="AP5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AQ5">
+        <v>0.86731000000000003</v>
+      </c>
+      <c r="AR5">
+        <v>0.86248999999999998</v>
+      </c>
+      <c r="AS5">
+        <v>0.86826000000000003</v>
+      </c>
+      <c r="AT5">
+        <v>0.86534</v>
+      </c>
+      <c r="AU5">
+        <v>0.88485000000000003</v>
+      </c>
+      <c r="AV5">
+        <v>0.88822999999999996</v>
+      </c>
+      <c r="AW5">
+        <v>0.86173999999999995</v>
+      </c>
+      <c r="AX5">
+        <v>0.86711000000000005</v>
+      </c>
+      <c r="AY5">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0.87483999999999995</v>
+      </c>
+      <c r="BA5">
+        <v>0.87105999999999995</v>
+      </c>
+      <c r="BB5">
+        <v>0.86273</v>
+      </c>
+      <c r="BC5">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="BD5">
+        <v>0.85694999999999999</v>
+      </c>
+      <c r="BE5">
+        <v>0.84518000000000004</v>
+      </c>
+      <c r="BF5">
+        <v>0.86180999999999996</v>
+      </c>
+      <c r="BG5">
+        <v>0.86965000000000003</v>
+      </c>
+      <c r="BH5">
+        <v>0.87002999999999997</v>
+      </c>
+      <c r="BI5">
+        <v>0.86989000000000005</v>
+      </c>
+      <c r="BJ5">
+        <v>0.83284000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.87534999999999996</v>
+      </c>
+      <c r="BL5">
+        <v>0.87238000000000004</v>
+      </c>
+      <c r="BM5">
+        <v>0.84911000000000003</v>
+      </c>
+      <c r="BN5">
+        <v>0.85079000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.86658000000000002</v>
+      </c>
+      <c r="BP5">
+        <v>0.88044999999999995</v>
+      </c>
+      <c r="BQ5">
+        <v>0.88546999999999998</v>
+      </c>
+      <c r="BR5">
+        <v>0.86631999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.87141999999999997</v>
+      </c>
+      <c r="BU5">
+        <v>0.83257000000000003</v>
+      </c>
+      <c r="BV5">
+        <v>0.85187000000000002</v>
+      </c>
+      <c r="BW5">
+        <v>0.87114999999999998</v>
+      </c>
+      <c r="BX5">
+        <v>0.85931999999999997</v>
+      </c>
+      <c r="BY5">
+        <v>0.871</v>
+      </c>
+      <c r="BZ5">
+        <v>0.85780999999999996</v>
+      </c>
+      <c r="CA5">
+        <v>0.83882000000000001</v>
+      </c>
+      <c r="CB5">
+        <v>0.8639</v>
+      </c>
+      <c r="CC5">
+        <v>0.88034000000000001</v>
+      </c>
+      <c r="CD5">
+        <v>0.85372999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.85811999999999999</v>
+      </c>
+      <c r="CF5">
+        <v>0.87412000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>0.84853000000000001</v>
+      </c>
+      <c r="CH5">
+        <v>0.86448999999999998</v>
+      </c>
+      <c r="CI5">
+        <v>0.85679000000000005</v>
+      </c>
+      <c r="CJ5">
+        <v>0.85072000000000003</v>
+      </c>
+      <c r="CK5">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="CL5">
+        <v>0.84404999999999997</v>
+      </c>
+      <c r="CM5">
+        <v>0.85809000000000002</v>
+      </c>
+      <c r="CN5">
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="CO5">
+        <v>0.87090999999999996</v>
+      </c>
+      <c r="CP5">
+        <v>0.84701000000000004</v>
+      </c>
+      <c r="CQ5">
+        <v>0.85892999999999997</v>
+      </c>
+      <c r="CR5">
+        <v>0.85655999999999999</v>
+      </c>
+      <c r="CS5">
+        <v>0.84753000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>0.86772000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.84745999999999999</v>
+      </c>
+      <c r="CV5">
+        <v>0.85102</v>
+      </c>
+      <c r="CW5">
+        <v>0.861738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.84723999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.86955000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.88097000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.86258000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.87822</v>
+      </c>
+      <c r="J6">
+        <v>0.86560999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.87916000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.84445999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.86738999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.87758000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.87524999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.84750999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.87265000000000004</v>
+      </c>
+      <c r="S6">
+        <v>0.86794000000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.87465999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.85829</v>
+      </c>
+      <c r="W6">
+        <v>0.86834</v>
+      </c>
+      <c r="X6">
+        <v>0.87863000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.85136999999999996</v>
+      </c>
+      <c r="Z6">
+        <v>0.88736000000000004</v>
+      </c>
+      <c r="AA6">
+        <v>0.87597999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.86163000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.86812</v>
+      </c>
+      <c r="AD6">
+        <v>0.87844</v>
+      </c>
+      <c r="AE6">
+        <v>0.87124999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="AG6">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="AH6">
+        <v>0.84155000000000002</v>
+      </c>
+      <c r="AI6">
+        <v>0.86075999999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>0.83901000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>0.87092000000000003</v>
+      </c>
+      <c r="AL6">
+        <v>0.86633000000000004</v>
+      </c>
+      <c r="AM6">
+        <v>0.85972999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.84684999999999999</v>
+      </c>
+      <c r="AO6">
+        <v>0.86024</v>
+      </c>
+      <c r="AP6">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>0.85404000000000002</v>
+      </c>
+      <c r="AR6">
+        <v>0.86667000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>0.85145999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>0.85172000000000003</v>
+      </c>
+      <c r="AU6">
+        <v>0.84177000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.86906000000000005</v>
+      </c>
+      <c r="AW6">
+        <v>0.88466</v>
+      </c>
+      <c r="AX6">
+        <v>0.87748000000000004</v>
+      </c>
+      <c r="AY6">
+        <v>0.87792000000000003</v>
+      </c>
+      <c r="AZ6">
+        <v>0.86975999999999998</v>
+      </c>
+      <c r="BA6">
+        <v>0.86841000000000002</v>
+      </c>
+      <c r="BB6">
+        <v>0.86158999999999997</v>
+      </c>
+      <c r="BC6">
+        <v>0.87212000000000001</v>
+      </c>
+      <c r="BD6">
+        <v>0.86133000000000004</v>
+      </c>
+      <c r="BE6">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="BF6">
+        <v>0.87422999999999995</v>
+      </c>
+      <c r="BG6">
+        <v>0.87051999999999996</v>
+      </c>
+      <c r="BH6">
+        <v>0.88288999999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.85846</v>
+      </c>
+      <c r="BJ6">
+        <v>0.86660999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>0.86436000000000002</v>
+      </c>
+      <c r="BL6">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="BM6">
+        <v>0.87477000000000005</v>
+      </c>
+      <c r="BN6">
+        <v>0.86673999999999995</v>
+      </c>
+      <c r="BO6">
+        <v>0.87107000000000001</v>
+      </c>
+      <c r="BP6">
+        <v>0.82845999999999997</v>
+      </c>
+      <c r="BQ6">
+        <v>0.87231999999999998</v>
+      </c>
+      <c r="BR6">
+        <v>0.86746999999999996</v>
+      </c>
+      <c r="BS6">
+        <v>0.85555000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.88773999999999997</v>
+      </c>
+      <c r="BU6">
+        <v>0.85202</v>
+      </c>
+      <c r="BV6">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="BW6">
+        <v>0.88593999999999995</v>
+      </c>
+      <c r="BX6">
+        <v>0.85802</v>
+      </c>
+      <c r="BY6">
+        <v>0.85580999999999996</v>
+      </c>
+      <c r="BZ6">
+        <v>0.88380999999999998</v>
+      </c>
+      <c r="CA6">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="CB6">
+        <v>0.87824000000000002</v>
+      </c>
+      <c r="CC6">
+        <v>0.87022999999999995</v>
+      </c>
+      <c r="CD6">
+        <v>0.86458999999999997</v>
+      </c>
+      <c r="CE6">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="CF6">
+        <v>0.83104</v>
+      </c>
+      <c r="CG6">
+        <v>0.87095999999999996</v>
+      </c>
+      <c r="CH6">
+        <v>0.86575000000000002</v>
+      </c>
+      <c r="CI6">
+        <v>0.87809000000000004</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84894999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.84972000000000003</v>
+      </c>
+      <c r="CL6">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="CM6">
+        <v>0.88597999999999999</v>
+      </c>
+      <c r="CN6">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="CO6">
+        <v>0.88080999999999998</v>
+      </c>
+      <c r="CP6">
+        <v>0.86246999999999996</v>
+      </c>
+      <c r="CQ6">
+        <v>0.87631999999999999</v>
+      </c>
+      <c r="CR6">
+        <v>0.88185999999999998</v>
+      </c>
+      <c r="CS6">
+        <v>0.84016999999999997</v>
+      </c>
+      <c r="CT6">
+        <v>0.87394000000000005</v>
+      </c>
+      <c r="CU6">
+        <v>0.86168</v>
+      </c>
+      <c r="CV6">
+        <v>0.85745000000000005</v>
+      </c>
+      <c r="CW6">
+        <v>0.86486490000000027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.86068</v>
+      </c>
+      <c r="E7">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.84047000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.88651999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.85931000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.86079000000000006</v>
+      </c>
+      <c r="J7">
+        <v>0.86463999999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="L7">
+        <v>0.87822</v>
+      </c>
+      <c r="M7">
+        <v>0.85028000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.86377999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.87351000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.87287000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.85024999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.87673000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="T7">
+        <v>0.85538000000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.83764000000000005</v>
+      </c>
+      <c r="V7">
+        <v>0.85682000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="X7">
+        <v>0.86029</v>
+      </c>
+      <c r="Y7">
+        <v>0.84180999999999995</v>
+      </c>
+      <c r="Z7">
+        <v>0.85831000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.84067999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.87192000000000003</v>
+      </c>
+      <c r="AC7">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>0.87999000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.89571000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0.85675000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.86258999999999997</v>
+      </c>
+      <c r="AH7">
+        <v>0.87078999999999995</v>
+      </c>
+      <c r="AI7">
+        <v>0.85646</v>
+      </c>
+      <c r="AJ7">
+        <v>0.88087000000000004</v>
+      </c>
+      <c r="AK7">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="AL7">
+        <v>0.87280999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>0.87331999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.84892999999999996</v>
+      </c>
+      <c r="AO7">
+        <v>0.84709000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.86238999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.86604000000000003</v>
+      </c>
+      <c r="AR7">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>0.88122</v>
+      </c>
+      <c r="AT7">
+        <v>0.84272999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.87082999999999999</v>
+      </c>
+      <c r="AV7">
+        <v>0.87465999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.85277000000000003</v>
+      </c>
+      <c r="AX7">
+        <v>0.87299000000000004</v>
+      </c>
+      <c r="AY7">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>0.88005</v>
+      </c>
+      <c r="BA7">
+        <v>0.87124999999999997</v>
+      </c>
+      <c r="BB7">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>0.87631000000000003</v>
+      </c>
+      <c r="BD7">
+        <v>0.84987000000000001</v>
+      </c>
+      <c r="BE7">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="BF7">
+        <v>0.85721000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.84421000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.85833999999999999</v>
+      </c>
+      <c r="BI7">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>0.85401000000000005</v>
+      </c>
+      <c r="BK7">
+        <v>0.87816000000000005</v>
+      </c>
+      <c r="BL7">
+        <v>0.87331000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.86202000000000001</v>
+      </c>
+      <c r="BN7">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="BO7">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="BP7">
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85865000000000002</v>
+      </c>
+      <c r="BR7">
+        <v>0.89371</v>
+      </c>
+      <c r="BS7">
+        <v>0.87927999999999995</v>
+      </c>
+      <c r="BT7">
+        <v>0.8649</v>
+      </c>
+      <c r="BU7">
+        <v>0.83313999999999999</v>
+      </c>
+      <c r="BV7">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="BW7">
+        <v>0.85106999999999999</v>
+      </c>
+      <c r="BX7">
+        <v>0.85309000000000001</v>
+      </c>
+      <c r="BY7">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="BZ7">
+        <v>0.87122999999999995</v>
+      </c>
+      <c r="CA7">
+        <v>0.84489000000000003</v>
+      </c>
+      <c r="CB7">
+        <v>0.88924000000000003</v>
+      </c>
+      <c r="CC7">
+        <v>0.83055000000000001</v>
+      </c>
+      <c r="CD7">
+        <v>0.87714999999999999</v>
+      </c>
+      <c r="CE7">
+        <v>0.86797000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.84806999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.87941000000000003</v>
+      </c>
+      <c r="CH7">
+        <v>0.85446</v>
+      </c>
+      <c r="CI7">
+        <v>0.89117999999999997</v>
+      </c>
+      <c r="CJ7">
+        <v>0.85479000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="CL7">
+        <v>0.88134999999999997</v>
+      </c>
+      <c r="CM7">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="CN7">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="CO7">
+        <v>0.84513000000000005</v>
+      </c>
+      <c r="CP7">
+        <v>0.86826000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.84116000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="CS7">
+        <v>0.87426999999999999</v>
+      </c>
+      <c r="CT7">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="CU7">
+        <v>0.84672000000000003</v>
+      </c>
+      <c r="CV7">
+        <v>0.85553999999999997</v>
+      </c>
+      <c r="CW7">
+        <v>0.86233140000000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85928000000000004</v>
+      </c>
+      <c r="B8">
+        <v>0.84601999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.86302000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.87466999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.86882000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.86116999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.86353999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.85058999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.85462000000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.86306000000000005</v>
+      </c>
+      <c r="L8">
+        <v>0.86263999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.85455000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.85912999999999995</v>
+      </c>
+      <c r="O8">
+        <v>0.85585</v>
+      </c>
+      <c r="P8">
+        <v>0.85801000000000005</v>
+      </c>
+      <c r="Q8">
+        <v>0.8649</v>
+      </c>
+      <c r="R8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.83726</v>
+      </c>
+      <c r="T8">
+        <v>0.84723999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.85824</v>
+      </c>
+      <c r="V8">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.88637999999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="AA8">
+        <v>0.83826000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="AC8">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.86277000000000004</v>
+      </c>
+      <c r="AE8">
+        <v>0.88758999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.83343</v>
+      </c>
+      <c r="AH8">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.87263000000000002</v>
+      </c>
+      <c r="AJ8">
+        <v>0.85565000000000002</v>
+      </c>
+      <c r="AK8">
+        <v>0.86289000000000005</v>
+      </c>
+      <c r="AL8">
+        <v>0.85502999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>0.85663</v>
+      </c>
+      <c r="AN8">
+        <v>0.83642000000000005</v>
+      </c>
+      <c r="AO8">
+        <v>0.86363000000000001</v>
+      </c>
+      <c r="AP8">
+        <v>0.88402999999999998</v>
+      </c>
+      <c r="AQ8">
+        <v>0.84555999999999998</v>
+      </c>
+      <c r="AR8">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="AS8">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>0.87565000000000004</v>
+      </c>
+      <c r="AU8">
+        <v>0.88476999999999995</v>
+      </c>
+      <c r="AV8">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="AW8">
+        <v>0.86438000000000004</v>
+      </c>
+      <c r="AX8">
+        <v>0.86194999999999999</v>
+      </c>
+      <c r="AY8">
+        <v>0.86465999999999998</v>
+      </c>
+      <c r="AZ8">
+        <v>0.84469000000000005</v>
+      </c>
+      <c r="BA8">
+        <v>0.85823000000000005</v>
+      </c>
+      <c r="BB8">
+        <v>0.86504999999999999</v>
+      </c>
+      <c r="BC8">
+        <v>0.84763999999999995</v>
+      </c>
+      <c r="BD8">
+        <v>0.87112999999999996</v>
+      </c>
+      <c r="BE8">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="BF8">
+        <v>0.86777000000000004</v>
+      </c>
+      <c r="BG8">
+        <v>0.86395999999999995</v>
+      </c>
+      <c r="BH8">
+        <v>0.85375999999999996</v>
+      </c>
+      <c r="BI8">
+        <v>0.85258999999999996</v>
+      </c>
+      <c r="BJ8">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="BL8">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="BM8">
+        <v>0.86504999999999999</v>
+      </c>
+      <c r="BN8">
+        <v>0.84294000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>0.84669000000000005</v>
+      </c>
+      <c r="BP8">
+        <v>0.85841000000000001</v>
+      </c>
+      <c r="BQ8">
+        <v>0.88275000000000003</v>
+      </c>
+      <c r="BR8">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="BS8">
+        <v>0.85879000000000005</v>
+      </c>
+      <c r="BT8">
+        <v>0.86162000000000005</v>
+      </c>
+      <c r="BU8">
+        <v>0.86319000000000001</v>
+      </c>
+      <c r="BV8">
+        <v>0.85929</v>
+      </c>
+      <c r="BW8">
+        <v>0.86802000000000001</v>
+      </c>
+      <c r="BX8">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="BY8">
+        <v>0.88244999999999996</v>
+      </c>
+      <c r="BZ8">
+        <v>0.88100999999999996</v>
+      </c>
+      <c r="CA8">
+        <v>0.85262000000000004</v>
+      </c>
+      <c r="CB8">
+        <v>0.84247000000000005</v>
+      </c>
+      <c r="CC8">
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>0.87229000000000001</v>
+      </c>
+      <c r="CE8">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="CF8">
+        <v>0.85402999999999996</v>
+      </c>
+      <c r="CG8">
+        <v>0.85174000000000005</v>
+      </c>
+      <c r="CH8">
+        <v>0.86594000000000004</v>
+      </c>
+      <c r="CI8">
+        <v>0.83487</v>
+      </c>
+      <c r="CJ8">
+        <v>0.87029000000000001</v>
+      </c>
+      <c r="CK8">
+        <v>0.86787999999999998</v>
+      </c>
+      <c r="CL8">
+        <v>0.83611999999999997</v>
+      </c>
+      <c r="CM8">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="CN8">
+        <v>0.86102999999999996</v>
+      </c>
+      <c r="CO8">
+        <v>0.8821</v>
+      </c>
+      <c r="CP8">
+        <v>0.88785999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.85311000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.86589000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.85860999999999998</v>
+      </c>
+      <c r="CT8">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="CU8">
+        <v>0.86604000000000003</v>
+      </c>
+      <c r="CV8">
+        <v>0.87194000000000005</v>
+      </c>
+      <c r="CW8">
+        <v>0.86058339999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.88453000000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.86565000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.86611000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.86123000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.86219000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.85502999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.85611000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.85035000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.84550999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.85882000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.84989000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.85702</v>
+      </c>
+      <c r="O9">
+        <v>0.87451999999999996</v>
+      </c>
+      <c r="P9">
+        <v>0.84923999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.87128000000000005</v>
+      </c>
+      <c r="R9">
+        <v>0.87805999999999995</v>
+      </c>
+      <c r="S9">
+        <v>0.85067999999999999</v>
+      </c>
+      <c r="T9">
+        <v>0.88165000000000004</v>
+      </c>
+      <c r="U9">
+        <v>0.86802000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.86363000000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.88007000000000002</v>
+      </c>
+      <c r="X9">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="Y9">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>0.88885000000000003</v>
+      </c>
+      <c r="AB9">
+        <v>0.88697999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.86621000000000004</v>
+      </c>
+      <c r="AD9">
+        <v>0.87233000000000005</v>
+      </c>
+      <c r="AE9">
+        <v>0.84928999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.85775999999999997</v>
+      </c>
+      <c r="AG9">
+        <v>0.88083</v>
+      </c>
+      <c r="AH9">
+        <v>0.87034</v>
+      </c>
+      <c r="AI9">
+        <v>0.87897999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.87383</v>
+      </c>
+      <c r="AK9">
+        <v>0.85941000000000001</v>
+      </c>
+      <c r="AL9">
+        <v>0.86351</v>
+      </c>
+      <c r="AM9">
+        <v>0.87156999999999996</v>
+      </c>
+      <c r="AN9">
+        <v>0.85977999999999999</v>
+      </c>
+      <c r="AO9">
+        <v>0.88317999999999997</v>
+      </c>
+      <c r="AP9">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="AQ9">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="AR9">
+        <v>0.86700999999999995</v>
+      </c>
+      <c r="AS9">
+        <v>0.88032999999999995</v>
+      </c>
+      <c r="AT9">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AU9">
+        <v>0.85821999999999998</v>
+      </c>
+      <c r="AV9">
+        <v>0.87741000000000002</v>
+      </c>
+      <c r="AW9">
+        <v>0.85707999999999995</v>
+      </c>
+      <c r="AX9">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="AY9">
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="AZ9">
+        <v>0.85197999999999996</v>
+      </c>
+      <c r="BA9">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="BB9">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="BC9">
+        <v>0.88348000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.87222999999999995</v>
+      </c>
+      <c r="BE9">
+        <v>0.87680999999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.87368999999999997</v>
+      </c>
+      <c r="BG9">
+        <v>0.85843000000000003</v>
+      </c>
+      <c r="BH9">
+        <v>0.87655000000000005</v>
+      </c>
+      <c r="BI9">
+        <v>0.87402999999999997</v>
+      </c>
+      <c r="BJ9">
+        <v>0.88427</v>
+      </c>
+      <c r="BK9">
+        <v>0.87787999999999999</v>
+      </c>
+      <c r="BL9">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="BM9">
+        <v>0.84552000000000005</v>
+      </c>
+      <c r="BN9">
+        <v>0.86119000000000001</v>
+      </c>
+      <c r="BO9">
+        <v>0.84879000000000004</v>
+      </c>
+      <c r="BP9">
+        <v>0.86204999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.86112</v>
+      </c>
+      <c r="BR9">
+        <v>0.85509000000000002</v>
+      </c>
+      <c r="BS9">
+        <v>0.85619000000000001</v>
+      </c>
+      <c r="BT9">
+        <v>0.85601000000000005</v>
+      </c>
+      <c r="BU9">
+        <v>0.87075999999999998</v>
+      </c>
+      <c r="BV9">
+        <v>0.87597000000000003</v>
+      </c>
+      <c r="BW9">
+        <v>0.85480999999999996</v>
+      </c>
+      <c r="BX9">
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.84791000000000005</v>
+      </c>
+      <c r="BZ9">
+        <v>0.86116999999999999</v>
+      </c>
+      <c r="CA9">
+        <v>0.86967000000000005</v>
+      </c>
+      <c r="CB9">
+        <v>0.85755000000000003</v>
+      </c>
+      <c r="CC9">
+        <v>0.83699000000000001</v>
+      </c>
+      <c r="CD9">
+        <v>0.84785999999999995</v>
+      </c>
+      <c r="CE9">
+        <v>0.87973999999999997</v>
+      </c>
+      <c r="CF9">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="CG9">
+        <v>0.85865000000000002</v>
+      </c>
+      <c r="CH9">
+        <v>0.86033999999999999</v>
+      </c>
+      <c r="CI9">
+        <v>0.85419</v>
+      </c>
+      <c r="CJ9">
+        <v>0.85111999999999999</v>
+      </c>
+      <c r="CK9">
+        <v>0.85390999999999995</v>
+      </c>
+      <c r="CL9">
+        <v>0.83738999999999997</v>
+      </c>
+      <c r="CM9">
+        <v>0.85582999999999998</v>
+      </c>
+      <c r="CN9">
+        <v>0.88817999999999997</v>
+      </c>
+      <c r="CO9">
+        <v>0.86397000000000002</v>
+      </c>
+      <c r="CP9">
+        <v>0.85294999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.85629</v>
+      </c>
+      <c r="CR9">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="CS9">
+        <v>0.85858000000000001</v>
+      </c>
+      <c r="CT9">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="CU9">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="CV9">
+        <v>0.85275999999999996</v>
+      </c>
+      <c r="CW9">
+        <v>0.86340639999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.87465999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.87502000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.86402000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.8579</v>
+      </c>
+      <c r="F10">
+        <v>0.87771999999999994</v>
+      </c>
+      <c r="G10">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.86526000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.86912</v>
+      </c>
+      <c r="L10">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.86331999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.84601999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.87455000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.84621000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="S10">
+        <v>0.8528</v>
+      </c>
+      <c r="T10">
         <v>0.84963</v>
       </c>
-      <c r="C1">
-        <v>0.85972000000000004</v>
+      <c r="U10">
+        <v>0.86829000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.82735000000000003</v>
+      </c>
+      <c r="W10">
+        <v>0.84584999999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.85302999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.87048000000000003</v>
+      </c>
+      <c r="Z10">
+        <v>0.87634999999999996</v>
+      </c>
+      <c r="AA10">
+        <v>0.85216000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.87034999999999996</v>
+      </c>
+      <c r="AC10">
+        <v>0.87158000000000002</v>
+      </c>
+      <c r="AD10">
+        <v>0.84714999999999996</v>
+      </c>
+      <c r="AE10">
+        <v>0.86802000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.86665000000000003</v>
+      </c>
+      <c r="AG10">
+        <v>0.87627999999999995</v>
+      </c>
+      <c r="AH10">
+        <v>0.86355000000000004</v>
+      </c>
+      <c r="AI10">
+        <v>0.87482000000000004</v>
+      </c>
+      <c r="AJ10">
+        <v>0.87134999999999996</v>
+      </c>
+      <c r="AK10">
+        <v>0.84419</v>
+      </c>
+      <c r="AL10">
+        <v>0.85687000000000002</v>
+      </c>
+      <c r="AM10">
+        <v>0.82272000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="AO10">
+        <v>0.87416000000000005</v>
+      </c>
+      <c r="AP10">
+        <v>0.84502999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>0.85448999999999997</v>
+      </c>
+      <c r="AR10">
+        <v>0.85926000000000002</v>
+      </c>
+      <c r="AS10">
+        <v>0.84875999999999996</v>
+      </c>
+      <c r="AT10">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="AU10">
+        <v>0.87055000000000005</v>
+      </c>
+      <c r="AV10">
+        <v>0.85485999999999995</v>
+      </c>
+      <c r="AW10">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="AX10">
+        <v>0.86538999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>0.83494999999999997</v>
+      </c>
+      <c r="AZ10">
+        <v>0.85851999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.86106000000000005</v>
+      </c>
+      <c r="BB10">
+        <v>0.87846000000000002</v>
+      </c>
+      <c r="BC10">
+        <v>0.87885999999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.85694999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>0.86568999999999996</v>
+      </c>
+      <c r="BF10">
+        <v>0.83833000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.85711999999999999</v>
+      </c>
+      <c r="BH10">
+        <v>0.86451999999999996</v>
+      </c>
+      <c r="BI10">
+        <v>0.87792999999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>0.86645000000000005</v>
+      </c>
+      <c r="BL10">
+        <v>0.83043</v>
+      </c>
+      <c r="BM10">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="BN10">
+        <v>0.88709000000000005</v>
+      </c>
+      <c r="BO10">
+        <v>0.83974000000000004</v>
+      </c>
+      <c r="BP10">
+        <v>0.86033999999999999</v>
+      </c>
+      <c r="BQ10">
+        <v>0.87768999999999997</v>
+      </c>
+      <c r="BR10">
+        <v>0.85867000000000004</v>
+      </c>
+      <c r="BS10">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="BT10">
+        <v>0.84197999999999995</v>
+      </c>
+      <c r="BU10">
+        <v>0.84743000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>0.85865999999999998</v>
+      </c>
+      <c r="BW10">
+        <v>0.85899000000000003</v>
+      </c>
+      <c r="BX10">
+        <v>0.87572000000000005</v>
+      </c>
+      <c r="BY10">
+        <v>0.86048999999999998</v>
+      </c>
+      <c r="BZ10">
+        <v>0.86395999999999995</v>
+      </c>
+      <c r="CA10">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="CB10">
+        <v>0.87158000000000002</v>
+      </c>
+      <c r="CC10">
+        <v>0.87968000000000002</v>
+      </c>
+      <c r="CD10">
+        <v>0.87046999999999997</v>
+      </c>
+      <c r="CE10">
+        <v>0.86578999999999995</v>
+      </c>
+      <c r="CF10">
+        <v>0.83316000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.88963999999999999</v>
+      </c>
+      <c r="CH10">
+        <v>0.87207999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.82584999999999997</v>
+      </c>
+      <c r="CJ10">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="CK10">
+        <v>0.86294999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.86717</v>
+      </c>
+      <c r="CM10">
+        <v>0.88966999999999996</v>
+      </c>
+      <c r="CN10">
+        <v>0.85438999999999998</v>
+      </c>
+      <c r="CO10">
+        <v>0.88066</v>
+      </c>
+      <c r="CP10">
+        <v>0.85611000000000004</v>
+      </c>
+      <c r="CQ10">
+        <v>0.88900999999999997</v>
+      </c>
+      <c r="CR10">
+        <v>0.85536999999999996</v>
+      </c>
+      <c r="CS10">
+        <v>0.87246999999999997</v>
+      </c>
+      <c r="CT10">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="CU10">
+        <v>0.86638999999999999</v>
+      </c>
+      <c r="CV10">
+        <v>0.88365000000000005</v>
+      </c>
+      <c r="CW10">
+        <v>0.86161950000000009</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87063999999999997</v>
-      </c>
-      <c r="B2">
-        <v>0.86743000000000003</v>
-      </c>
-      <c r="C2">
-        <v>0.869035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.85689000000000004</v>
-      </c>
-      <c r="B3">
-        <v>0.86889000000000005</v>
-      </c>
-      <c r="C3">
-        <v>0.86289000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.83159000000000005</v>
-      </c>
-      <c r="B4">
-        <v>0.86953000000000003</v>
-      </c>
-      <c r="C4">
-        <v>0.85055999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.87173999999999996</v>
-      </c>
-      <c r="B5">
-        <v>0.87866</v>
-      </c>
-      <c r="C5">
-        <v>0.87519999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.87378</v>
-      </c>
-      <c r="B6">
-        <v>0.85909999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.86643999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="B7">
-        <v>0.86585000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.860425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.86101000000000005</v>
-      </c>
-      <c r="B8">
-        <v>0.85443999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.85772500000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.86040000000000005</v>
-      </c>
-      <c r="B9">
-        <v>0.86209999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.86125000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.85143000000000002</v>
-      </c>
-      <c r="B10">
-        <v>0.85394999999999999</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.86704999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.87426999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.86512</v>
+      </c>
+      <c r="D11">
+        <v>0.88036000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.84694000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.87295999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.86270999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.86651</v>
+      </c>
+      <c r="J11">
+        <v>0.84284999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.85780999999999996</v>
+      </c>
+      <c r="M11">
+        <v>0.85885999999999996</v>
+      </c>
+      <c r="N11">
+        <v>0.84762999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.87102000000000002</v>
+      </c>
+      <c r="P11">
+        <v>0.87763999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.86728000000000005</v>
+      </c>
+      <c r="R11">
+        <v>0.86134999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.85006999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.85572999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.87622999999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.84672000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.84089000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.85214000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>0.87604000000000004</v>
+      </c>
+      <c r="Z11">
+        <v>0.86421999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.85107999999999995</v>
+      </c>
+      <c r="AB11">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AC11">
+        <v>0.87219000000000002</v>
+      </c>
+      <c r="AD11">
+        <v>0.85624</v>
+      </c>
+      <c r="AE11">
+        <v>0.86029</v>
+      </c>
+      <c r="AF11">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="AG11">
+        <v>0.85267000000000004</v>
+      </c>
+      <c r="AH11">
+        <v>0.86563000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.84047000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AK11">
+        <v>0.85616999999999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.85660999999999998</v>
+      </c>
+      <c r="AM11">
+        <v>0.85377000000000003</v>
+      </c>
+      <c r="AN11">
+        <v>0.83887999999999996</v>
+      </c>
+      <c r="AO11">
+        <v>0.84326000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.85202</v>
+      </c>
+      <c r="AQ11">
+        <v>0.84848999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.88022999999999996</v>
+      </c>
+      <c r="AS11">
+        <v>0.83982000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="AU11">
+        <v>0.88744000000000001</v>
+      </c>
+      <c r="AV11">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.86961999999999995</v>
+      </c>
+      <c r="AX11">
+        <v>0.85092999999999996</v>
+      </c>
+      <c r="AY11">
+        <v>0.85168999999999995</v>
+      </c>
+      <c r="AZ11">
+        <v>0.89117999999999997</v>
+      </c>
+      <c r="BA11">
+        <v>0.86043000000000003</v>
+      </c>
+      <c r="BB11">
+        <v>0.86099000000000003</v>
+      </c>
+      <c r="BC11">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="BD11">
+        <v>0.84750999999999999</v>
+      </c>
+      <c r="BE11">
+        <v>0.86956</v>
+      </c>
+      <c r="BF11">
+        <v>0.86590999999999996</v>
+      </c>
+      <c r="BG11">
+        <v>0.86307999999999996</v>
+      </c>
+      <c r="BH11">
+        <v>0.85492000000000001</v>
+      </c>
+      <c r="BI11">
+        <v>0.85255000000000003</v>
+      </c>
+      <c r="BJ11">
+        <v>0.86429</v>
+      </c>
+      <c r="BK11">
+        <v>0.85131000000000001</v>
+      </c>
+      <c r="BL11">
+        <v>0.87405999999999995</v>
+      </c>
+      <c r="BM11">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="BN11">
+        <v>0.84775999999999996</v>
+      </c>
+      <c r="BO11">
+        <v>0.86079000000000006</v>
+      </c>
+      <c r="BP11">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="BQ11">
+        <v>0.84087000000000001</v>
+      </c>
+      <c r="BR11">
+        <v>0.85724</v>
+      </c>
+      <c r="BS11">
+        <v>0.87</v>
+      </c>
+      <c r="BT11">
+        <v>0.84609000000000001</v>
+      </c>
+      <c r="BU11">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="BV11">
+        <v>0.88344999999999996</v>
+      </c>
+      <c r="BW11">
+        <v>0.84155999999999997</v>
+      </c>
+      <c r="BX11">
+        <v>0.87273999999999996</v>
+      </c>
+      <c r="BY11">
+        <v>0.87077000000000004</v>
+      </c>
+      <c r="BZ11">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="CA11">
+        <v>0.87714000000000003</v>
+      </c>
+      <c r="CB11">
+        <v>0.86646999999999996</v>
+      </c>
+      <c r="CC11">
+        <v>0.84189000000000003</v>
+      </c>
+      <c r="CD11">
+        <v>0.86055999999999999</v>
+      </c>
+      <c r="CE11">
+        <v>0.85460999999999998</v>
+      </c>
+      <c r="CF11">
+        <v>0.87612999999999996</v>
+      </c>
+      <c r="CG11">
         <v>0.85268999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.8831</v>
-      </c>
-      <c r="B11">
-        <v>0.85704999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.87007499999999993</v>
+      <c r="CH11">
+        <v>0.83652000000000004</v>
+      </c>
+      <c r="CI11">
+        <v>0.87604000000000004</v>
+      </c>
+      <c r="CJ11">
+        <v>0.8599</v>
+      </c>
+      <c r="CK11">
+        <v>0.88083999999999996</v>
+      </c>
+      <c r="CL11">
+        <v>0.87846999999999997</v>
+      </c>
+      <c r="CM11">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="CN11">
+        <v>0.87190999999999996</v>
+      </c>
+      <c r="CO11">
+        <v>0.86851</v>
+      </c>
+      <c r="CP11">
+        <v>0.86275000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.85851999999999995</v>
+      </c>
+      <c r="CR11">
+        <v>0.88866999999999996</v>
+      </c>
+      <c r="CS11">
+        <v>0.85967000000000005</v>
+      </c>
+      <c r="CT11">
+        <v>0.88541999999999998</v>
+      </c>
+      <c r="CU11">
+        <v>0.86765999999999999</v>
+      </c>
+      <c r="CV11">
+        <v>0.88475000000000004</v>
+      </c>
+      <c r="CW11">
+        <v>0.86109679999999955</v>
       </c>
     </row>
   </sheetData>
